--- a/app/Documentation/TimerMarianne.xlsx
+++ b/app/Documentation/TimerMarianne.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marianne\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marianne\AndroidStudioProjects\birdWatcher\app\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EC27019-6708-4BED-8750-9B19C4727BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A11B40-7AD5-4EC1-9EDA-0117872C3F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1850" yWindow="1920" windowWidth="19200" windowHeight="11170" xr2:uid="{93C01FF3-C626-4E48-A2ED-E10793DA98FD}"/>
+    <workbookView xWindow="1850" yWindow="1920" windowWidth="21740" windowHeight="12430" xr2:uid="{93C01FF3-C626-4E48-A2ED-E10793DA98FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="44">
   <si>
     <t>UKE</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>TIMELISTE FOR MARIANNE</t>
+  </si>
+  <si>
+    <t>Jeg har ikke notert ned alle møtene våre, men det er kun ett jeg ikke har vært med på, så timelisten er noe mangelfull.</t>
+  </si>
+  <si>
+    <t>Gruppemøte/innlevering</t>
+  </si>
+  <si>
+    <t>Egenstudium/Gruppemøte</t>
   </si>
 </sst>
 </file>
@@ -555,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7FC578-A967-44FF-9B5D-576A76C5A2AF}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,10 +692,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="4">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -1080,6 +1089,12 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="D56" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -1662,6 +1677,9 @@
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
+      <c r="E111" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
